--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\TeamProject_Dripbag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="119">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1218,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6578,8 +6582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7411,7 +7415,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>63</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\TeamProject_Dripbag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
     <sheet name="드립백 구글트랜드 테이블 명세" sheetId="4" r:id="rId2"/>
     <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
-    <sheet name="구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
-    <sheet name="뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
-    <sheet name="공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
+    <sheet name="드립백 구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
+    <sheet name="드립백 뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
+    <sheet name="드립백 공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,27 +179,295 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>nVARCHAR2(1300)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스랭킹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -207,223 +475,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구글트랜드 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_nRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스랭킹 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_nComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>News 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 1</t>
+    <t>nVARCHAR2(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_newsList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 댓글 테이블 SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -431,79 +503,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>likes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cont</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
+    <t>CLOB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_NewsComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1903,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1982,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2004,16 +2028,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2029,16 +2053,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2051,19 +2075,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2076,19 +2100,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2282,7 +2306,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2961,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -2982,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3034,13 +3058,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3059,19 +3083,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3090,7 +3114,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3109,13 +3133,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3328,7 +3352,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4008,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4029,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4052,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4081,20 +4105,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4106,13 +4130,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4137,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4162,10 +4186,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4185,10 +4209,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4383,7 +4407,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5037,7 +5061,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -5062,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5083,7 +5107,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5130,31 +5154,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>58</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="17" t="s">
-        <v>85</v>
+      <c r="L5" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5162,25 +5186,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="22" t="s">
-        <v>87</v>
+      <c r="L6" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5188,44 +5212,43 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5238,19 +5261,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -5269,10 +5292,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5288,16 +5311,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5316,16 +5339,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5339,16 +5362,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5483,7 +5506,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6137,7 +6160,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -6162,7 +6185,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6183,7 +6206,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6235,26 +6258,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6262,25 +6285,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6288,19 +6311,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -6313,19 +6336,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -6338,19 +6361,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -6369,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6388,16 +6411,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -6416,16 +6439,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6439,16 +6462,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -6582,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7237,7 +7260,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -7262,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7283,7 +7306,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7335,20 +7358,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7360,19 +7383,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -7384,19 +7407,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -7409,19 +7432,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -7440,10 +7463,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>33</v>
@@ -7459,16 +7482,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -7481,16 +7504,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -7509,16 +7532,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
